--- a/UO Outlands Creature List.xlsx
+++ b/UO Outlands Creature List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE591B9-AC6F-4400-8E22-FF53B00CCD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF49CF2-3041-42EB-9457-8CA1188C6E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{725F3C2E-E349-4B8F-BF20-9916B673D670}"/>
+    <workbookView xWindow="37440" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{725F3C2E-E349-4B8F-BF20-9916B673D670}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 0" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="990">
   <si>
     <t>Slayer</t>
   </si>
@@ -2712,6 +2712,312 @@
   </si>
   <si>
     <t>0x7C647</t>
+  </si>
+  <si>
+    <t>a gremlin</t>
+  </si>
+  <si>
+    <t>0x1B9C6</t>
+  </si>
+  <si>
+    <t>a goblin</t>
+  </si>
+  <si>
+    <t>0x1B9B4</t>
+  </si>
+  <si>
+    <t>an aegis mongbat</t>
+  </si>
+  <si>
+    <t>0x1A11C</t>
+  </si>
+  <si>
+    <t>an effigy</t>
+  </si>
+  <si>
+    <t>0x1A0E0</t>
+  </si>
+  <si>
+    <t>an aegis rat</t>
+  </si>
+  <si>
+    <t>0x1A05C</t>
+  </si>
+  <si>
+    <t>an aegis cultist</t>
+  </si>
+  <si>
+    <t>0x2432BE</t>
+  </si>
+  <si>
+    <t>an entombed</t>
+  </si>
+  <si>
+    <t>0x2432A3</t>
+  </si>
+  <si>
+    <t>an aegis slime</t>
+  </si>
+  <si>
+    <t>0x1B9CC</t>
+  </si>
+  <si>
+    <t>a wolfhound</t>
+  </si>
+  <si>
+    <t>0x1A0E6</t>
+  </si>
+  <si>
+    <t>a kobold</t>
+  </si>
+  <si>
+    <t>0x1A052</t>
+  </si>
+  <si>
+    <t>a chaos footman</t>
+  </si>
+  <si>
+    <t>0x1B9C4</t>
+  </si>
+  <si>
+    <t>an aegis imp</t>
+  </si>
+  <si>
+    <t>0x1B9D3</t>
+  </si>
+  <si>
+    <t>a blood ape</t>
+  </si>
+  <si>
+    <t>0x1A0F6</t>
+  </si>
+  <si>
+    <t>an aegis minion</t>
+  </si>
+  <si>
+    <t>0x1A079</t>
+  </si>
+  <si>
+    <t>a blood hellion</t>
+  </si>
+  <si>
+    <t>0x1B9FD</t>
+  </si>
+  <si>
+    <t>a blood orc</t>
+  </si>
+  <si>
+    <t>0x1B9EC</t>
+  </si>
+  <si>
+    <t>an aegis whelp</t>
+  </si>
+  <si>
+    <t>0x18645</t>
+  </si>
+  <si>
+    <t>a blood ogre mage</t>
+  </si>
+  <si>
+    <t>0x12AB9</t>
+  </si>
+  <si>
+    <t>a blood troll</t>
+  </si>
+  <si>
+    <t>0x12AAD</t>
+  </si>
+  <si>
+    <t>a clay man</t>
+  </si>
+  <si>
+    <t>0x12AAF</t>
+  </si>
+  <si>
+    <t>a blood harpy</t>
+  </si>
+  <si>
+    <t>0xC360</t>
+  </si>
+  <si>
+    <t>a blood drake</t>
+  </si>
+  <si>
+    <t>0x10303</t>
+  </si>
+  <si>
+    <t>an aegis noble</t>
+  </si>
+  <si>
+    <t>0x10305</t>
+  </si>
+  <si>
+    <t>an aegis asp</t>
+  </si>
+  <si>
+    <t>0x10356</t>
+  </si>
+  <si>
+    <t>an aegis scorpion</t>
+  </si>
+  <si>
+    <t>0xE58B</t>
+  </si>
+  <si>
+    <t>an aegis lich</t>
+  </si>
+  <si>
+    <t>0xE58C</t>
+  </si>
+  <si>
+    <t>a bloodrat</t>
+  </si>
+  <si>
+    <t>0x18647</t>
+  </si>
+  <si>
+    <t>a coagulator</t>
+  </si>
+  <si>
+    <t>0x12ABB</t>
+  </si>
+  <si>
+    <t>an aegis leech</t>
+  </si>
+  <si>
+    <t>0x1111A</t>
+  </si>
+  <si>
+    <t>a twilight guardian</t>
+  </si>
+  <si>
+    <t>0x1112B</t>
+  </si>
+  <si>
+    <t>a skulker</t>
+  </si>
+  <si>
+    <t>0x12ABC</t>
+  </si>
+  <si>
+    <t>a bloodwolf</t>
+  </si>
+  <si>
+    <t>0x107F9</t>
+  </si>
+  <si>
+    <t>a chaos warrior</t>
+  </si>
+  <si>
+    <t>0x255984</t>
+  </si>
+  <si>
+    <t>a blood cyclops</t>
+  </si>
+  <si>
+    <t>0x25596A</t>
+  </si>
+  <si>
+    <t>an aegis knight</t>
+  </si>
+  <si>
+    <t>0x25583F</t>
+  </si>
+  <si>
+    <t>a malform</t>
+  </si>
+  <si>
+    <t>0x1BA19</t>
+  </si>
+  <si>
+    <t>a blood scorpion</t>
+  </si>
+  <si>
+    <t>0x1BA18</t>
+  </si>
+  <si>
+    <t>a chaos knight</t>
+  </si>
+  <si>
+    <t>0x1BA24</t>
+  </si>
+  <si>
+    <t>a blood serpent</t>
+  </si>
+  <si>
+    <t>0x16B22</t>
+  </si>
+  <si>
+    <t>a doppelganger</t>
+  </si>
+  <si>
+    <t>0x163E0</t>
+  </si>
+  <si>
+    <t>a blood ravager</t>
+  </si>
+  <si>
+    <t>0x18649</t>
+  </si>
+  <si>
+    <t>blood elemental</t>
+  </si>
+  <si>
+    <t>0xF78C</t>
+  </si>
+  <si>
+    <t>a blood fiend</t>
+  </si>
+  <si>
+    <t>0x103BF</t>
+  </si>
+  <si>
+    <t>a lesser blood daemon</t>
+  </si>
+  <si>
+    <t>0x103F7</t>
+  </si>
+  <si>
+    <t>a bloodworm</t>
+  </si>
+  <si>
+    <t>0x103FD</t>
+  </si>
+  <si>
+    <t>a blood dragon</t>
+  </si>
+  <si>
+    <t>0x17EFF</t>
+  </si>
+  <si>
+    <t>a blood feaster</t>
+  </si>
+  <si>
+    <t>0x101A5</t>
+  </si>
+  <si>
+    <t>a blood hunter</t>
+  </si>
+  <si>
+    <t>0x17EF9</t>
+  </si>
+  <si>
+    <t>a blood sorcerer</t>
+  </si>
+  <si>
+    <t>0x17F09</t>
+  </si>
+  <si>
+    <t>a blood daemon</t>
+  </si>
+  <si>
+    <t>0x1BDD6</t>
+  </si>
+  <si>
+    <t>0x100B0</t>
+  </si>
+  <si>
+    <t>0x1B8A9</t>
   </si>
 </sst>
 </file>
@@ -3214,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23D4693-46C3-4AB6-951E-1D31349F3F3F}">
   <dimension ref="A1:V734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="D592" sqref="D592"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,10 +3830,18 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2853</v>
+      </c>
+      <c r="D7" s="2">
+        <v>727</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
@@ -3567,10 +3881,18 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2928</v>
+      </c>
+      <c r="D8" s="2">
+        <v>689</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3654,10 +3976,18 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2853</v>
+      </c>
+      <c r="D10" s="2">
+        <v>74</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3701,10 +4031,18 @@
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1055</v>
+      </c>
+      <c r="D11" s="2">
+        <v>400</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
@@ -3742,10 +4080,18 @@
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2944</v>
+      </c>
+      <c r="D12" s="2">
+        <v>732</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
@@ -3780,10 +4126,18 @@
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2944</v>
+      </c>
+      <c r="D13" s="2">
+        <v>24</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
@@ -3827,10 +4181,18 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2928</v>
+      </c>
+      <c r="D14" s="2">
+        <v>776</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3874,10 +4236,18 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2819</v>
+      </c>
+      <c r="D15" s="2">
+        <v>39</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
@@ -3912,10 +4282,18 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1048</v>
+      </c>
+      <c r="D16" s="2">
+        <v>400</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
@@ -3950,10 +4328,18 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2944</v>
+      </c>
+      <c r="D17" s="2">
+        <v>215</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>40</v>
       </c>
@@ -3988,10 +4374,18 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2944</v>
+      </c>
+      <c r="D18" s="2">
+        <v>717</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>41</v>
       </c>
@@ -4031,10 +4425,18 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2944</v>
+      </c>
+      <c r="D19" s="2">
+        <v>51</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
@@ -4072,10 +4474,18 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2853</v>
+      </c>
+      <c r="D20" s="2">
+        <v>716</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
@@ -6025,10 +6435,18 @@
       <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2466</v>
+      </c>
+      <c r="D66" s="2">
+        <v>29</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6359,10 +6777,18 @@
       <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D74" s="2">
+        <v>75</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>100</v>
       </c>
@@ -6397,10 +6823,18 @@
       <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D75" s="2">
+        <v>9</v>
+      </c>
       <c r="E75" s="2" t="s">
         <v>101</v>
       </c>
@@ -6444,10 +6878,18 @@
       <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D76" s="2">
+        <v>59</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
       </c>
@@ -6482,10 +6924,18 @@
       <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D77" s="2">
+        <v>61</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
       </c>
@@ -6520,10 +6970,18 @@
       <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="A78" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2846</v>
+      </c>
+      <c r="D78" s="2">
+        <v>16</v>
+      </c>
       <c r="E78" s="2" t="s">
         <v>104</v>
       </c>
@@ -6570,10 +7028,18 @@
       <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D79" s="2">
+        <v>303</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>105</v>
       </c>
@@ -6608,10 +7074,18 @@
       <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D80" s="2">
+        <v>306</v>
+      </c>
       <c r="E80" s="2" t="s">
         <v>106</v>
       </c>
@@ -6646,10 +7120,18 @@
       <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D81" s="2">
+        <v>30</v>
+      </c>
       <c r="E81" s="2" t="s">
         <v>107</v>
       </c>
@@ -6684,10 +7166,18 @@
       <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="A82" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D82" s="2">
+        <v>241</v>
+      </c>
       <c r="E82" s="2" t="s">
         <v>108</v>
       </c>
@@ -6722,10 +7212,18 @@
       <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2817</v>
+      </c>
+      <c r="D83" s="2">
+        <v>730</v>
+      </c>
       <c r="E83" s="2" t="s">
         <v>109</v>
       </c>
@@ -6807,10 +7305,18 @@
       <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="A85" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2846</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
       <c r="E85" s="2" t="s">
         <v>111</v>
       </c>
@@ -6854,10 +7360,18 @@
       <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="A86" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D86" s="2">
+        <v>17</v>
+      </c>
       <c r="E86" s="2" t="s">
         <v>112</v>
       </c>
@@ -6892,10 +7406,18 @@
       <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="A87" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D87" s="2">
+        <v>314</v>
+      </c>
       <c r="E87" s="2" t="s">
         <v>113</v>
       </c>
@@ -6930,10 +7452,18 @@
       <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2466</v>
+      </c>
+      <c r="D88" s="2">
+        <v>48</v>
+      </c>
       <c r="E88" s="2" t="s">
         <v>114</v>
       </c>
@@ -6973,10 +7503,18 @@
       <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="A89" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2846</v>
+      </c>
+      <c r="D89" s="2">
+        <v>21</v>
+      </c>
       <c r="E89" s="2" t="s">
         <v>115</v>
       </c>
@@ -7016,10 +7554,18 @@
       <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D90" s="2">
+        <v>721</v>
+      </c>
       <c r="E90" s="2" t="s">
         <v>116</v>
       </c>
@@ -7063,10 +7609,18 @@
       <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="A91" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2846</v>
+      </c>
+      <c r="D91" s="2">
+        <v>53</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>117</v>
       </c>
@@ -7101,10 +7655,18 @@
       <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2466</v>
+      </c>
+      <c r="D92" s="2">
+        <v>42</v>
+      </c>
       <c r="E92" s="2" t="s">
         <v>118</v>
       </c>
@@ -7139,10 +7701,18 @@
       <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1069</v>
+      </c>
       <c r="E93" s="2" t="s">
         <v>119</v>
       </c>
@@ -7177,10 +7747,18 @@
       <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2817</v>
+      </c>
+      <c r="D94" s="2">
+        <v>287</v>
+      </c>
       <c r="E94" s="2" t="s">
         <v>120</v>
       </c>
@@ -7215,10 +7793,18 @@
       <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D95" s="2">
+        <v>59</v>
+      </c>
       <c r="E95" s="2" t="s">
         <v>121</v>
       </c>
@@ -8390,10 +8976,18 @@
       <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>23</v>
+      </c>
       <c r="E123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8428,10 +9022,18 @@
       <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="A124" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>27</v>
+      </c>
       <c r="E124" s="2" t="s">
         <v>150</v>
       </c>
@@ -8466,10 +9068,18 @@
       <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="A125" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>25</v>
+      </c>
       <c r="E125" s="2" t="s">
         <v>151</v>
       </c>
@@ -8668,10 +9278,18 @@
       <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="A130" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2798</v>
+      </c>
+      <c r="D130" s="2">
+        <v>779</v>
+      </c>
       <c r="E130" s="2" t="s">
         <v>156</v>
       </c>
@@ -8706,10 +9324,18 @@
       <c r="V130" s="2"/>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="A131" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D131" s="2">
+        <v>775</v>
+      </c>
       <c r="E131" s="2" t="s">
         <v>157</v>
       </c>
@@ -10935,10 +11561,18 @@
       <c r="V184" s="2"/>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="A185" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C185" s="2">
+        <v>2479</v>
+      </c>
+      <c r="D185" s="2">
+        <v>777</v>
+      </c>
       <c r="E185" s="2" t="s">
         <v>210</v>
       </c>
@@ -12212,10 +12846,18 @@
       <c r="V214" s="2"/>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="A215" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C215" s="2">
+        <v>2910</v>
+      </c>
+      <c r="D215" s="2">
+        <v>31</v>
+      </c>
       <c r="E215" s="2" t="s">
         <v>240</v>
       </c>
@@ -12713,10 +13355,18 @@
       <c r="V226" s="2"/>
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="A227" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C227" s="2">
+        <v>2797</v>
+      </c>
+      <c r="D227" s="2">
+        <v>154</v>
+      </c>
       <c r="E227" s="2" t="s">
         <v>252</v>
       </c>
@@ -15862,10 +16512,18 @@
       <c r="V299" s="2"/>
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
+      <c r="A300" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C300" s="2">
+        <v>0</v>
+      </c>
+      <c r="D300" s="2">
+        <v>723</v>
+      </c>
       <c r="E300" s="2" t="s">
         <v>325</v>
       </c>
@@ -16186,10 +16844,18 @@
       <c r="V307" s="2"/>
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
+      <c r="A308" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C308" s="2">
+        <v>2941</v>
+      </c>
+      <c r="D308" s="2">
+        <v>334</v>
+      </c>
       <c r="E308" s="2" t="s">
         <v>333</v>
       </c>
@@ -18103,10 +18769,18 @@
       <c r="V353" s="2"/>
     </row>
     <row r="354" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
+      <c r="A354" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C354" s="2">
+        <v>0</v>
+      </c>
+      <c r="D354" s="2">
+        <v>724</v>
+      </c>
       <c r="E354" s="2" t="s">
         <v>379</v>
       </c>
@@ -18305,10 +18979,18 @@
       <c r="V358" s="2"/>
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
+      <c r="A359" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C359" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D359" s="2">
+        <v>40</v>
+      </c>
       <c r="E359" s="2" t="s">
         <v>384</v>
       </c>
@@ -19450,10 +20132,18 @@
       <c r="V384" s="2"/>
     </row>
     <row r="385" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
+      <c r="A385" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C385" s="2">
+        <v>2846</v>
+      </c>
+      <c r="D385" s="2">
+        <v>259</v>
+      </c>
       <c r="E385" s="2" t="s">
         <v>410</v>
       </c>
@@ -27243,10 +27933,18 @@
       <c r="V565" s="2"/>
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
-      <c r="C566" s="2"/>
-      <c r="D566" s="2"/>
+      <c r="A566" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C566" s="2">
+        <v>2740</v>
+      </c>
+      <c r="D566" s="2">
+        <v>741</v>
+      </c>
       <c r="E566" s="2" t="s">
         <v>590</v>
       </c>
@@ -28725,10 +29423,18 @@
       <c r="V600" s="2"/>
     </row>
     <row r="601" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
-      <c r="C601" s="2"/>
-      <c r="D601" s="2"/>
+      <c r="A601" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C601" s="2">
+        <v>2911</v>
+      </c>
+      <c r="D601" s="2">
+        <v>302</v>
+      </c>
       <c r="E601" s="2" t="s">
         <v>625</v>
       </c>
@@ -32154,10 +32860,18 @@
       <c r="V681" s="2"/>
     </row>
     <row r="682" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A682" s="2"/>
-      <c r="B682" s="2"/>
-      <c r="C682" s="2"/>
-      <c r="D682" s="2"/>
+      <c r="A682" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C682" s="2">
+        <v>2274</v>
+      </c>
+      <c r="D682" s="2">
+        <v>199</v>
+      </c>
       <c r="E682" s="2" t="s">
         <v>706</v>
       </c>
@@ -34169,10 +34883,18 @@
       <c r="V728" s="2"/>
     </row>
     <row r="729" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A729" s="2"/>
-      <c r="B729" s="2"/>
-      <c r="C729" s="2"/>
-      <c r="D729" s="2"/>
+      <c r="A729" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C729" s="2">
+        <v>2796</v>
+      </c>
+      <c r="D729" s="2">
+        <v>739</v>
+      </c>
       <c r="E729" s="2" t="s">
         <v>753</v>
       </c>

--- a/UO Outlands Creature List.xlsx
+++ b/UO Outlands Creature List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B5F8A2-4935-4526-81A6-C6D2B756B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71877D29-1B4D-46FD-A856-6E9B5C15FB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33405" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{725F3C2E-E349-4B8F-BF20-9916B673D670}"/>
+    <workbookView xWindow="35565" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{725F3C2E-E349-4B8F-BF20-9916B673D670}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 0" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1083">
   <si>
     <t>Slayer</t>
   </si>
@@ -3021,6 +3021,282 @@
   </si>
   <si>
     <t>0x10043</t>
+  </si>
+  <si>
+    <t>a snow elemental</t>
+  </si>
+  <si>
+    <t>0x1B86A</t>
+  </si>
+  <si>
+    <t>a snowdrift</t>
+  </si>
+  <si>
+    <t>0x1B305</t>
+  </si>
+  <si>
+    <t>a snow flurry</t>
+  </si>
+  <si>
+    <t>0x1B303</t>
+  </si>
+  <si>
+    <t>an opilion worker</t>
+  </si>
+  <si>
+    <t>0x1B2FC</t>
+  </si>
+  <si>
+    <t>an opilion attendant</t>
+  </si>
+  <si>
+    <t>0x1B2EC</t>
+  </si>
+  <si>
+    <t>a sabeartooth</t>
+  </si>
+  <si>
+    <t>0x1B2D2</t>
+  </si>
+  <si>
+    <t>a winter wolf</t>
+  </si>
+  <si>
+    <t>0x1B2FD</t>
+  </si>
+  <si>
+    <t>a rime guar</t>
+  </si>
+  <si>
+    <t>0x1B329</t>
+  </si>
+  <si>
+    <t>an ursal huntsman</t>
+  </si>
+  <si>
+    <t>0x1B2F2</t>
+  </si>
+  <si>
+    <t>an ursal forager</t>
+  </si>
+  <si>
+    <t>0x1B32A</t>
+  </si>
+  <si>
+    <t>frozen dead</t>
+  </si>
+  <si>
+    <t>0x1B877</t>
+  </si>
+  <si>
+    <t>frozen remains</t>
+  </si>
+  <si>
+    <t>0x1B950</t>
+  </si>
+  <si>
+    <t>an acarid</t>
+  </si>
+  <si>
+    <t>0x1B2E8</t>
+  </si>
+  <si>
+    <t>a rime elemental</t>
+  </si>
+  <si>
+    <t>0x1B277</t>
+  </si>
+  <si>
+    <t>an ursal throatsinger</t>
+  </si>
+  <si>
+    <t>0x1B274</t>
+  </si>
+  <si>
+    <t>glacial creep</t>
+  </si>
+  <si>
+    <t>0x1B253</t>
+  </si>
+  <si>
+    <t>a nagalid</t>
+  </si>
+  <si>
+    <t>0x1B9C7</t>
+  </si>
+  <si>
+    <t>a frigid hornbeast</t>
+  </si>
+  <si>
+    <t>0x1B9CB</t>
+  </si>
+  <si>
+    <t>an air drake</t>
+  </si>
+  <si>
+    <t>0x1B95D</t>
+  </si>
+  <si>
+    <t>a white wyrmling</t>
+  </si>
+  <si>
+    <t>0x1B91C</t>
+  </si>
+  <si>
+    <t>a frozen fury</t>
+  </si>
+  <si>
+    <t>0x1B9F9</t>
+  </si>
+  <si>
+    <t>a rimestone</t>
+  </si>
+  <si>
+    <t>0xAA48</t>
+  </si>
+  <si>
+    <t>a colossal frost scorpion</t>
+  </si>
+  <si>
+    <t>0xAA58</t>
+  </si>
+  <si>
+    <t>a rime spirit</t>
+  </si>
+  <si>
+    <t>0x1813E</t>
+  </si>
+  <si>
+    <t>hoarfrost</t>
+  </si>
+  <si>
+    <t>0x18141</t>
+  </si>
+  <si>
+    <t>a rime spirit champion</t>
+  </si>
+  <si>
+    <t>0x1810B</t>
+  </si>
+  <si>
+    <t>a cave gorger</t>
+  </si>
+  <si>
+    <t>0x1B6DF</t>
+  </si>
+  <si>
+    <t>an icy dracolisk</t>
+  </si>
+  <si>
+    <t>0x1B6E2</t>
+  </si>
+  <si>
+    <t>a rime spirit skirmisher</t>
+  </si>
+  <si>
+    <t>0x1B67C</t>
+  </si>
+  <si>
+    <t>a rime spirit soldier</t>
+  </si>
+  <si>
+    <t>0x1B46D</t>
+  </si>
+  <si>
+    <t>a winterweed</t>
+  </si>
+  <si>
+    <t>0x1B38D</t>
+  </si>
+  <si>
+    <t>a barbed prowler</t>
+  </si>
+  <si>
+    <t>0x1B489</t>
+  </si>
+  <si>
+    <t>an arctic bullvore</t>
+  </si>
+  <si>
+    <t>0x1B47A</t>
+  </si>
+  <si>
+    <t>an icy lurker</t>
+  </si>
+  <si>
+    <t>0x1B482</t>
+  </si>
+  <si>
+    <t>a rime spirit knight</t>
+  </si>
+  <si>
+    <t>0x1B33A</t>
+  </si>
+  <si>
+    <t>an air dragon</t>
+  </si>
+  <si>
+    <t>0x1B365</t>
+  </si>
+  <si>
+    <t>a white wyrm</t>
+  </si>
+  <si>
+    <t>0x1B37E</t>
+  </si>
+  <si>
+    <t>a rhinocerus beetle</t>
+  </si>
+  <si>
+    <t>0x1B5AC</t>
+  </si>
+  <si>
+    <t>a lemura</t>
+  </si>
+  <si>
+    <t>0x1B5C0</t>
+  </si>
+  <si>
+    <t>a charoite</t>
+  </si>
+  <si>
+    <t>0x1B5BF</t>
+  </si>
+  <si>
+    <t>a silicite</t>
+  </si>
+  <si>
+    <t>0x1B5BE</t>
+  </si>
+  <si>
+    <t>a frigid archfiend</t>
+  </si>
+  <si>
+    <t>0x1B70E</t>
+  </si>
+  <si>
+    <t>a wendigo</t>
+  </si>
+  <si>
+    <t>0x1B712</t>
+  </si>
+  <si>
+    <t>a walking avalanche</t>
+  </si>
+  <si>
+    <t>0x16446</t>
+  </si>
+  <si>
+    <t>a crag daemon</t>
+  </si>
+  <si>
+    <t>0x163E1</t>
+  </si>
+  <si>
+    <t>0xCE13</t>
+  </si>
+  <si>
+    <t>0x19A03</t>
   </si>
 </sst>
 </file>
@@ -3520,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23D4693-46C3-4AB6-951E-1D31349F3F3F}">
   <dimension ref="A1:V734"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,6 +4009,18 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2941</v>
+      </c>
+      <c r="D5" s="1">
+        <v>385</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
@@ -4508,6 +4796,18 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2907</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
@@ -4540,6 +4840,18 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2907</v>
+      </c>
+      <c r="D23" s="1">
+        <v>60</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
@@ -5504,6 +5816,18 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2908</v>
+      </c>
+      <c r="D49" s="1">
+        <v>715</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>75</v>
       </c>
@@ -5843,6 +6167,18 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2251</v>
+      </c>
+      <c r="D58" s="1">
+        <v>99</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>84</v>
       </c>
@@ -5907,6 +6243,18 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2263</v>
+      </c>
+      <c r="D60" s="1">
+        <v>113</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>86</v>
       </c>
@@ -8296,6 +8644,18 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2936</v>
+      </c>
+      <c r="D119" s="1">
+        <v>384</v>
+      </c>
       <c r="E119" s="1" t="s">
         <v>145</v>
       </c>
@@ -8328,6 +8688,18 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2928</v>
+      </c>
+      <c r="D120" s="1">
+        <v>373</v>
+      </c>
       <c r="E120" s="1" t="s">
         <v>146</v>
       </c>
@@ -8574,6 +8946,18 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2450</v>
+      </c>
+      <c r="D126" s="1">
+        <v>705</v>
+      </c>
       <c r="E126" s="1" t="s">
         <v>152</v>
       </c>
@@ -8887,6 +9271,18 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2908</v>
+      </c>
+      <c r="D134" s="1">
+        <v>98</v>
+      </c>
       <c r="E134" s="1" t="s">
         <v>160</v>
       </c>
@@ -9354,6 +9750,18 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2910</v>
+      </c>
+      <c r="D147" s="1">
+        <v>9</v>
+      </c>
       <c r="E147" s="1" t="s">
         <v>173</v>
       </c>
@@ -13386,7 +13794,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C257" s="1">
+        <v>2903</v>
+      </c>
+      <c r="D257" s="1">
+        <v>318</v>
+      </c>
       <c r="E257" s="1" t="s">
         <v>282</v>
       </c>
@@ -13427,7 +13847,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C258" s="1">
+        <v>2907</v>
+      </c>
+      <c r="D258" s="1">
+        <v>392</v>
+      </c>
       <c r="E258" s="1" t="s">
         <v>283</v>
       </c>
@@ -13459,7 +13891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E259" s="1" t="s">
         <v>284</v>
       </c>
@@ -13500,7 +13932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="260" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E260" s="1" t="s">
         <v>285</v>
       </c>
@@ -13541,7 +13973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E261" s="1" t="s">
         <v>286</v>
       </c>
@@ -13582,7 +14014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E262" s="1" t="s">
         <v>287</v>
       </c>
@@ -13623,7 +14055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E263" s="1" t="s">
         <v>288</v>
       </c>
@@ -13664,7 +14096,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2907</v>
+      </c>
+      <c r="D264" s="1">
+        <v>310</v>
+      </c>
       <c r="E264" s="1" t="s">
         <v>289</v>
       </c>
@@ -13708,7 +14152,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C265" s="1">
+        <v>2907</v>
+      </c>
+      <c r="D265" s="1">
+        <v>372</v>
+      </c>
       <c r="E265" s="1" t="s">
         <v>290</v>
       </c>
@@ -13740,7 +14196,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C266" s="1">
+        <v>2936</v>
+      </c>
+      <c r="D266" s="1">
+        <v>309</v>
+      </c>
       <c r="E266" s="1" t="s">
         <v>291</v>
       </c>
@@ -13769,7 +14237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E267" s="1" t="s">
         <v>292</v>
       </c>
@@ -13804,7 +14272,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="268" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E268" s="1" t="s">
         <v>293</v>
       </c>
@@ -13836,7 +14304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E269" s="1" t="s">
         <v>294</v>
       </c>
@@ -13868,7 +14336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E270" s="1" t="s">
         <v>295</v>
       </c>
@@ -13900,7 +14368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E271" s="1" t="s">
         <v>296</v>
       </c>
@@ -13935,7 +14403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E272" s="1" t="s">
         <v>297</v>
       </c>
@@ -14983,6 +15451,18 @@
       </c>
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2903</v>
+      </c>
+      <c r="D299" s="1">
+        <v>779</v>
+      </c>
       <c r="E299" s="1" t="s">
         <v>324</v>
       </c>
@@ -15634,6 +16114,18 @@
       </c>
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C317" s="1">
+        <v>2908</v>
+      </c>
+      <c r="D317" s="1">
+        <v>304</v>
+      </c>
       <c r="E317" s="1" t="s">
         <v>342</v>
       </c>
@@ -15767,7 +16259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E321" s="1" t="s">
         <v>346</v>
       </c>
@@ -15799,7 +16291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E322" s="1" t="s">
         <v>347</v>
       </c>
@@ -15831,7 +16323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E323" s="1" t="s">
         <v>348</v>
       </c>
@@ -15863,7 +16355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E324" s="1" t="s">
         <v>349</v>
       </c>
@@ -15898,7 +16390,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="325" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E325" s="1" t="s">
         <v>350</v>
       </c>
@@ -15930,7 +16422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E326" s="1" t="s">
         <v>351</v>
       </c>
@@ -15962,7 +16454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E327" s="1" t="s">
         <v>352</v>
       </c>
@@ -15994,7 +16486,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C328" s="1">
+        <v>2936</v>
+      </c>
+      <c r="D328" s="1">
+        <v>384</v>
+      </c>
       <c r="E328" s="1" t="s">
         <v>353</v>
       </c>
@@ -16026,7 +16530,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C329" s="1">
+        <v>2903</v>
+      </c>
+      <c r="D329" s="1">
+        <v>160</v>
+      </c>
       <c r="E329" s="1" t="s">
         <v>354</v>
       </c>
@@ -16058,7 +16574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E330" s="1" t="s">
         <v>355</v>
       </c>
@@ -16099,7 +16615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E331" s="1" t="s">
         <v>356</v>
       </c>
@@ -16131,7 +16647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E332" s="1" t="s">
         <v>357</v>
       </c>
@@ -16166,7 +16682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="333" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E333" s="1" t="s">
         <v>358</v>
       </c>
@@ -16204,7 +16720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="334" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E334" s="1" t="s">
         <v>359</v>
       </c>
@@ -16245,7 +16761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E335" s="1" t="s">
         <v>360</v>
       </c>
@@ -16286,7 +16802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E336" s="1" t="s">
         <v>361</v>
       </c>
@@ -17123,6 +17639,18 @@
       </c>
     </row>
     <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C358" s="1">
+        <v>2461</v>
+      </c>
+      <c r="D358" s="1">
+        <v>293</v>
+      </c>
       <c r="E358" s="1" t="s">
         <v>383</v>
       </c>
@@ -19504,6 +20032,18 @@
       </c>
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C422" s="1">
+        <v>2907</v>
+      </c>
+      <c r="D422" s="1">
+        <v>79</v>
+      </c>
       <c r="E422" s="1" t="s">
         <v>447</v>
       </c>
@@ -20757,6 +21297,18 @@
       </c>
     </row>
     <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C456" s="1">
+        <v>2940</v>
+      </c>
+      <c r="D456" s="1">
+        <v>782</v>
+      </c>
       <c r="E456" s="1" t="s">
         <v>481</v>
       </c>
@@ -20830,6 +21382,18 @@
       </c>
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C458" s="1">
+        <v>2940</v>
+      </c>
+      <c r="D458" s="1">
+        <v>781</v>
+      </c>
       <c r="E458" s="1" t="s">
         <v>483</v>
       </c>
@@ -24124,6 +24688,18 @@
       </c>
     </row>
     <row r="542" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C542" s="1">
+        <v>2452</v>
+      </c>
+      <c r="D542" s="1">
+        <v>92</v>
+      </c>
       <c r="E542" s="1" t="s">
         <v>566</v>
       </c>
@@ -24237,7 +24813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="545" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E545" s="1" t="s">
         <v>569</v>
       </c>
@@ -24269,7 +24845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="546" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E546" s="1" t="s">
         <v>570</v>
       </c>
@@ -24310,7 +24886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="547" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E547" s="1" t="s">
         <v>571</v>
       </c>
@@ -24342,7 +24918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="548" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E548" s="1" t="s">
         <v>572</v>
       </c>
@@ -24374,7 +24950,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="549" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C549" s="1">
+        <v>2907</v>
+      </c>
+      <c r="D549" s="1">
+        <v>16</v>
+      </c>
       <c r="E549" s="1" t="s">
         <v>573</v>
       </c>
@@ -24418,7 +25006,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C550" s="1">
+        <v>2452</v>
+      </c>
+      <c r="D550" s="1">
+        <v>270</v>
+      </c>
       <c r="E550" s="1" t="s">
         <v>574</v>
       </c>
@@ -24450,7 +25050,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C551" s="1">
+        <v>2936</v>
+      </c>
+      <c r="D551" s="1">
+        <v>970</v>
+      </c>
       <c r="E551" s="1" t="s">
         <v>575</v>
       </c>
@@ -24494,7 +25106,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C552" s="1">
+        <v>2936</v>
+      </c>
+      <c r="D552" s="1">
+        <v>400</v>
+      </c>
       <c r="E552" s="1" t="s">
         <v>576</v>
       </c>
@@ -24529,7 +25153,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="553" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C553" s="1">
+        <v>2936</v>
+      </c>
+      <c r="D553" s="1">
+        <v>401</v>
+      </c>
       <c r="E553" s="1" t="s">
         <v>577</v>
       </c>
@@ -24564,7 +25200,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="554" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C554" s="1">
+        <v>2936</v>
+      </c>
+      <c r="D554" s="1">
+        <v>401</v>
+      </c>
       <c r="E554" s="1" t="s">
         <v>578</v>
       </c>
@@ -24599,7 +25247,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="555" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C555" s="1">
+        <v>2936</v>
+      </c>
+      <c r="D555" s="1">
+        <v>401</v>
+      </c>
       <c r="E555" s="1" t="s">
         <v>579</v>
       </c>
@@ -24634,7 +25294,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="556" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C556" s="1">
+        <v>2274</v>
+      </c>
+      <c r="D556" s="1">
+        <v>37</v>
+      </c>
       <c r="E556" s="1" t="s">
         <v>580</v>
       </c>
@@ -24666,7 +25338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="557" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E557" s="1" t="s">
         <v>581</v>
       </c>
@@ -24704,7 +25376,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="558" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E558" s="1" t="s">
         <v>582</v>
       </c>
@@ -24745,7 +25417,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="559" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E559" s="1" t="s">
         <v>583</v>
       </c>
@@ -24777,7 +25449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="560" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E560" s="1" t="s">
         <v>584</v>
       </c>
@@ -24874,6 +25546,18 @@
       </c>
     </row>
     <row r="563" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C563" s="1">
+        <v>2908</v>
+      </c>
+      <c r="D563" s="1">
+        <v>251</v>
+      </c>
       <c r="E563" s="1" t="s">
         <v>587</v>
       </c>
@@ -25774,6 +26458,18 @@
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C587" s="1">
+        <v>2450</v>
+      </c>
+      <c r="D587" s="1">
+        <v>300</v>
+      </c>
       <c r="E587" s="1" t="s">
         <v>611</v>
       </c>
@@ -26570,6 +27266,18 @@
       </c>
     </row>
     <row r="607" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C607" s="1">
+        <v>2875</v>
+      </c>
+      <c r="D607" s="1">
+        <v>14</v>
+      </c>
       <c r="E607" s="1" t="s">
         <v>631</v>
       </c>
@@ -26602,6 +27310,18 @@
       </c>
     </row>
     <row r="608" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C608" s="1">
+        <v>2909</v>
+      </c>
+      <c r="D608" s="1">
+        <v>13</v>
+      </c>
       <c r="E608" s="1" t="s">
         <v>632</v>
       </c>
@@ -26646,6 +27366,18 @@
       </c>
     </row>
     <row r="609" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C609" s="1">
+        <v>2903</v>
+      </c>
+      <c r="D609" s="1">
+        <v>51</v>
+      </c>
       <c r="E609" s="1" t="s">
         <v>633</v>
       </c>
@@ -29574,7 +30306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="689" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E689" s="1" t="s">
         <v>713</v>
       </c>
@@ -29615,7 +30347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="690" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E690" s="1" t="s">
         <v>714</v>
       </c>
@@ -29647,7 +30379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="691" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E691" s="1" t="s">
         <v>715</v>
       </c>
@@ -29679,7 +30411,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="692" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C692" s="1">
+        <v>33770</v>
+      </c>
+      <c r="D692" s="1">
+        <v>401</v>
+      </c>
       <c r="E692" s="1" t="s">
         <v>716</v>
       </c>
@@ -29714,7 +30458,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="693" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C693" s="1">
+        <v>33770</v>
+      </c>
+      <c r="D693" s="1">
+        <v>400</v>
+      </c>
       <c r="E693" s="1" t="s">
         <v>717</v>
       </c>
@@ -29746,7 +30502,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="694" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C694" s="1">
+        <v>33770</v>
+      </c>
+      <c r="D694" s="1">
+        <v>401</v>
+      </c>
       <c r="E694" s="1" t="s">
         <v>718</v>
       </c>
@@ -29787,7 +30555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="695" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E695" s="1" t="s">
         <v>719</v>
       </c>
@@ -29828,7 +30596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="696" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E696" s="1" t="s">
         <v>720</v>
       </c>
@@ -29860,7 +30628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="697" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E697" s="1" t="s">
         <v>721</v>
       </c>
@@ -29901,7 +30669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="698" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E698" s="1" t="s">
         <v>722</v>
       </c>
@@ -29948,7 +30716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="699" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E699" s="1" t="s">
         <v>723</v>
       </c>
@@ -29980,7 +30748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="700" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E700" s="1" t="s">
         <v>724</v>
       </c>
@@ -30012,7 +30780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="701" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E701" s="1" t="s">
         <v>725</v>
       </c>
@@ -30044,7 +30812,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="702" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E702" s="1" t="s">
         <v>726</v>
       </c>
@@ -30088,7 +30856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="703" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E703" s="1" t="s">
         <v>727</v>
       </c>
@@ -30126,7 +30894,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="704" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C704" s="1">
+        <v>2907</v>
+      </c>
+      <c r="D704" s="1">
+        <v>380</v>
+      </c>
       <c r="E704" s="1" t="s">
         <v>728</v>
       </c>
@@ -30158,7 +30938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="705" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E705" s="1" t="s">
         <v>729</v>
       </c>
@@ -30199,7 +30979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="706" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E706" s="1" t="s">
         <v>730</v>
       </c>
@@ -30231,7 +31011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="707" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E707" s="1" t="s">
         <v>731</v>
       </c>
@@ -30263,7 +31043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="708" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E708" s="1" t="s">
         <v>732</v>
       </c>
@@ -30307,7 +31087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="709" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E709" s="1" t="s">
         <v>733</v>
       </c>
@@ -30351,7 +31131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="710" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E710" s="1" t="s">
         <v>734</v>
       </c>
@@ -30386,7 +31166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="711" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E711" s="1" t="s">
         <v>735</v>
       </c>
@@ -30421,7 +31201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="712" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E712" s="1" t="s">
         <v>736</v>
       </c>
@@ -30465,7 +31245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="713" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E713" s="1" t="s">
         <v>737</v>
       </c>
@@ -30506,7 +31286,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="714" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C714" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D714" s="1">
+        <v>394</v>
+      </c>
       <c r="E714" s="1" t="s">
         <v>738</v>
       </c>
@@ -30544,7 +31336,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="715" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C715" s="1">
+        <v>2882</v>
+      </c>
+      <c r="D715" s="1">
+        <v>1419</v>
+      </c>
       <c r="E715" s="1" t="s">
         <v>739</v>
       </c>
@@ -30576,7 +31380,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="716" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C716" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D716" s="1">
+        <v>1504</v>
+      </c>
       <c r="E716" s="1" t="s">
         <v>740</v>
       </c>
@@ -30608,7 +31424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="717" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E717" s="1" t="s">
         <v>741</v>
       </c>
@@ -30652,7 +31468,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="718" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E718" s="1" t="s">
         <v>742</v>
       </c>
@@ -30696,7 +31512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="719" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E719" s="1" t="s">
         <v>743</v>
       </c>
@@ -30728,7 +31544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="720" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E720" s="1" t="s">
         <v>744</v>
       </c>
@@ -30869,6 +31685,18 @@
       </c>
     </row>
     <row r="724" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C724" s="1">
+        <v>2941</v>
+      </c>
+      <c r="D724" s="1">
+        <v>225</v>
+      </c>
       <c r="E724" s="1" t="s">
         <v>748</v>
       </c>
@@ -30942,6 +31770,18 @@
       </c>
     </row>
     <row r="726" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C726" s="1">
+        <v>2374</v>
+      </c>
+      <c r="D726" s="1">
+        <v>73</v>
+      </c>
       <c r="E726" s="1" t="s">
         <v>750</v>
       </c>
